--- a/Backend/output/informe_final.xlsx
+++ b/Backend/output/informe_final.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D08EC5C-50C0-4E80-9F94-13D57436A258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A589DDF-A1B3-4D04-B0F8-7571B51F8D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="733" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1315,7 +1315,7 @@
     <t>Acum diciembre - 2024</t>
   </si>
   <si>
-    <t>Hitos ADP ocurridos al 23 de diciembre</t>
+    <t>Hitos ADP ocurridos al 24 de diciembre</t>
   </si>
   <si>
     <t>Política de Gestión de Riesgos</t>
@@ -12943,7 +12943,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{189D7A51-4F22-40D6-A2FF-548EE6E9AA38}" type="CELLRANGE">
+                    <a:fld id="{34998BFF-D8D2-4A8F-8593-A33373321E10}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12977,7 +12977,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99037D19-6677-4A25-8DA9-4F2A9CD54EBA}" type="CELLRANGE">
+                    <a:fld id="{86CBE627-3C0F-4978-B0DC-4CFA59A5D826}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13011,7 +13011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAA59D90-32C3-451F-9161-A0DA54A94045}" type="CELLRANGE">
+                    <a:fld id="{E2CBA465-4450-4A78-8F16-A8FE2FD1AFED}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13045,7 +13045,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93A29BF6-CC2F-4EE0-A7EB-567737DBCC4A}" type="CELLRANGE">
+                    <a:fld id="{2B249169-5BD0-4F1B-9198-701BA88C2814}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13079,7 +13079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92DF6188-67E9-4DEF-AFD5-F8FDE673560B}" type="CELLRANGE">
+                    <a:fld id="{A09EECD4-3F58-4FD5-87A0-EC873ED0D5A8}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13113,7 +13113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{660335B8-14B6-4BE7-A6EF-1A2559D6315C}" type="CELLRANGE">
+                    <a:fld id="{BF31348A-2324-42F9-A2F5-A5A3192E1D50}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13147,7 +13147,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00EA975E-42F7-4843-BD12-9C8D85172928}" type="CELLRANGE">
+                    <a:fld id="{EFE3E381-F170-4180-AA96-5A4F340894B7}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13181,7 +13181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB49022F-8176-40AD-9DED-A658346751F1}" type="CELLRANGE">
+                    <a:fld id="{DB9DF5BE-AE12-4AB0-868D-263C01483CD3}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13215,7 +13215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C93591DD-A1BE-48D2-8A05-ED3CB3CF8870}" type="CELLRANGE">
+                    <a:fld id="{2C1DB71A-F76F-4960-AF58-51177E7FD95F}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13249,7 +13249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2874CA0-D9B7-4597-ABAA-A061F0A4B15F}" type="CELLRANGE">
+                    <a:fld id="{0FF58543-30B4-4B02-83DA-D9E978168D83}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13283,7 +13283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABDF3E11-E38D-4752-A789-C85B49C522D7}" type="CELLRANGE">
+                    <a:fld id="{6EA55170-8142-482D-90DE-A1EE59C7E261}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13317,7 +13317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30D67FA2-BE05-4B94-99BA-0615CA730A84}" type="CELLRANGE">
+                    <a:fld id="{DA8A8286-A200-4A63-947D-9969200E2BF2}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13694,7 +13694,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{447DC3CE-5FBE-4487-8A0A-57103656E3EE}" type="CELLRANGE">
+                    <a:fld id="{31A588B1-9C89-493D-AF7D-F2A84DDEC711}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14418,7 +14418,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{46855540-B78B-4025-AC81-A68FA5E5157B}" type="CELLRANGE">
+                    <a:fld id="{31FBFC7A-C227-44A6-B6E5-9F1BF52B6A97}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr>
                         <a:defRPr sz="1400">
@@ -14499,7 +14499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{065AF23C-D9CF-4409-8786-97B39D75FF5C}" type="CELLRANGE">
+                    <a:fld id="{74D90ABB-66FC-41FE-9269-A82190059F92}" type="CELLRANGE">
                       <a:rPr lang="es-CL"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
